--- a/InputData/land/FoFObE/Fraction of Forests Owned by Entity.xlsx
+++ b/InputData/land/FoFObE/Fraction of Forests Owned by Entity.xlsx
@@ -1,21 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\land\FoFObE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D0EA2B-02FF-453F-9596-BFD3D1EA0E4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="19140" windowHeight="9270"/>
+    <workbookView xWindow="9150" yWindow="690" windowWidth="29520" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="FoFObE" sheetId="3" r:id="rId2"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="FoFObE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>FoFObE Fraction of Forests Owned by Entity</t>
   </si>
@@ -23,38 +41,83 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>Fraction of Forest Owned</t>
+    <t>National Forest</t>
+  </si>
+  <si>
+    <t>Other public</t>
+  </si>
+  <si>
+    <t>Forest industry</t>
+  </si>
+  <si>
+    <t>Other private</t>
+  </si>
+  <si>
+    <t>Timber land</t>
+  </si>
+  <si>
+    <t>Reserved forest</t>
+  </si>
+  <si>
+    <t>Other forest</t>
+  </si>
+  <si>
+    <t>U.S.</t>
+  </si>
+  <si>
+    <t>Ownership of Forest Land (million hectares)</t>
+  </si>
+  <si>
+    <t>U.S. Forest Service</t>
+  </si>
+  <si>
+    <t>U.S. Forest Facts and Historical Trends</t>
+  </si>
+  <si>
+    <t>http://www.fia.fs.fed.us/library/briefings-summaries-overviews/docs/ForestFactsMetric.pdf</t>
+  </si>
+  <si>
+    <t>Page 6</t>
   </si>
   <si>
     <t>government</t>
   </si>
   <si>
-    <t>industry</t>
-  </si>
-  <si>
-    <t>consumers</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>We assume 95% of forests are owned by government.</t>
-  </si>
-  <si>
-    <t>We assume 5% of forests are owned by indigenous communities,</t>
-  </si>
-  <si>
-    <t>which we count as consumers.</t>
+    <t>The amount of government-owned forest is provided in the table.</t>
+  </si>
+  <si>
+    <t>We assume that all privately-owned forest used for timber land is owned</t>
+  </si>
+  <si>
+    <t>by industry, and half of the remaining privately-owned forest land is owned</t>
+  </si>
+  <si>
+    <t>by industry.  The remainder is owned by consumers.</t>
+  </si>
+  <si>
+    <t>foreign entities</t>
+  </si>
+  <si>
+    <t>labor and consumers</t>
+  </si>
+  <si>
+    <t>Fraction of Forest Owned (dimensionless)</t>
+  </si>
+  <si>
+    <t>domestic industries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +129,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -88,19 +159,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -108,6 +190,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -156,7 +241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,9 +274,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,6 +326,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -399,98 +518,288 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5">
+        <f>SUM(Data!B3,Data!B7)/SUM(Data!B3,Data!B7,Data!B11,Data!B15)</f>
+        <v>0.42384105960264901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5">
+        <f>SUM(Data!B11,Data!B16,Data!B18/2)/SUM(Data!B3,Data!B7,Data!B11,Data!B15)</f>
+        <v>0.52814569536423839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5">
+        <f>(Data!B18/2)/SUM(Data!B3,Data!B7,Data!B11,Data!B15)</f>
+        <v>4.8013245033112585E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
         <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.05</v>
       </c>
     </row>
   </sheetData>
